--- a/LogicServer/resources/sample/game.xlsx
+++ b/LogicServer/resources/sample/game.xlsx
@@ -579,16 +579,20 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -791,13 +795,13 @@
         <v>30</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>12</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -821,7 +825,7 @@
         <v>10000</v>
       </c>
       <c r="S5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -850,13 +854,13 @@
         <v>30</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>12</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -880,7 +884,7 @@
         <v>10000</v>
       </c>
       <c r="S6">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/LogicServer/resources/sample/game.xlsx
+++ b/LogicServer/resources/sample/game.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,16 +226,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4C2E9CAF-E209-4D3D-8CF7-A8DFB9A603E8}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,311 +617,314 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>40</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="1">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>100000</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>10</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>100</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>1000</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>10000</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>40</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="1">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>100000</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>10</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>1000</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>10000</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>100000</v>
       </c>
     </row>
